--- a/medicine/Psychotrope/Vermentino_di_Gallura/Vermentino_di_Gallura.xlsx
+++ b/medicine/Psychotrope/Vermentino_di_Gallura/Vermentino_di_Gallura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Vermentino di Gallura est un vin DOCG produit dans la province de Sassari, il doit son nom au cépage Vermentino et à la région de la Gallura.
@@ -512,7 +524,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Robe: Jaune paille à verdâtre
 Bouquet: nez subtil, intense, délicat.
@@ -544,7 +558,9 @@
           <t>Plats conseillés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Agréable très frais en apéritif (environ 6-8°).
 Se marie bien aux poissons grillés, fruits de mer et fromage de brebis jeune (pecorino sardo) servi à 10-12°.
@@ -576,7 +592,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres
 Sassari  (1996/97)  15104,18
